--- a/Carrier Path.xlsx
+++ b/Carrier Path.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$B$1:$F$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$B$1:$F$134</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="419">
   <si>
     <t>Awareness about databases(Database management systems samples,  databases, tables, relations)</t>
   </si>
@@ -386,9 +387,6 @@
     <t>Frameworks</t>
   </si>
   <si>
-    <t>Senior 3</t>
-  </si>
-  <si>
     <t>TypeScript</t>
   </si>
   <si>
@@ -1170,6 +1168,120 @@
   </si>
   <si>
     <t>Software patterns - GRASP (Part I - Introduction) -  de la 1 pan la 10</t>
+  </si>
+  <si>
+    <t>Structuring JavaScript Code</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/structuring-javascript/table-of-contents</t>
+  </si>
+  <si>
+    <t>Require.js</t>
+  </si>
+  <si>
+    <t>RequireJS: JavaScript Dependency Injection and Module Loading</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/search?q=require.js</t>
+  </si>
+  <si>
+    <t>Idei</t>
+  </si>
+  <si>
+    <t>jQuery - anailizat, impl  -- 10250 linii</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>jQuery Fundamentals</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jquery-fundamentals/table-of-contents</t>
+  </si>
+  <si>
+    <t>jQuery UI</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jqueryui/table-of-contents</t>
+  </si>
+  <si>
+    <t>jQuery In-Depth</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jquery-in-depth/table-of-contents</t>
+  </si>
+  <si>
+    <t>jQuery Forms and Bootstrap 3</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jquery-forms-bootstrap3/table-of-contents</t>
+  </si>
+  <si>
+    <t>Fixing Common jQuery Bugs</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/fixing-common-jquery-bugs/table-of-contents</t>
+  </si>
+  <si>
+    <t>Useful jQuery Plugins</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/useful-jquery-plugins/table-of-contents</t>
+  </si>
+  <si>
+    <t>jQuery Tips and Tricks</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jquery-tips-and-tricks/table-of-contents</t>
+  </si>
+  <si>
+    <t>jQuery Advanced Topics</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/jquery-adv/table-of-contents</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/javascript-asynchronous-module-definition-amd/table-of-contents</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/resharper-fundamentals/table-of-contents</t>
+  </si>
+  <si>
+    <t>Resharper</t>
+  </si>
+  <si>
+    <t>ReSharper Fundamentals</t>
+  </si>
+  <si>
+    <t>JavaScript Asynchronous Module Definition (AMD) Explained</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>jQuery/JavaScript</t>
+  </si>
+  <si>
+    <t>Senior 2</t>
+  </si>
+  <si>
+    <t>Making .NET Applications Even Faster</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/making-dotnet-applications-even-faster/table-of-contents</t>
+  </si>
+  <si>
+    <t>.NET/Garbage Collection</t>
+  </si>
+  <si>
+    <t>Garbage Collection</t>
+  </si>
+  <si>
+    <t>.NET Internals and Advanced Debugging Techniques</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/dotnet-internals-adv-debug/table-of-contents</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1592,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1603,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1614,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1658,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -1845,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
@@ -1908,10 +2020,10 @@
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
@@ -1919,10 +2031,10 @@
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
@@ -1930,10 +2042,10 @@
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1941,10 +2053,10 @@
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -2172,10 +2284,10 @@
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>75</v>
@@ -2183,10 +2295,10 @@
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>75</v>
@@ -2194,10 +2306,10 @@
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1">
       <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>75</v>
@@ -2205,10 +2317,10 @@
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>75</v>
@@ -2381,10 +2493,10 @@
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>103</v>
@@ -2392,10 +2504,10 @@
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>103</v>
@@ -2403,10 +2515,10 @@
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>103</v>
@@ -2414,10 +2526,10 @@
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>103</v>
@@ -2574,7 +2686,7 @@
         <v>115</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1">
@@ -2585,7 +2697,7 @@
         <v>116</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>120</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1">
@@ -2596,7 +2708,7 @@
         <v>118</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>120</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2608,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2624,98 +2736,98 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
         <v>248</v>
       </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" t="s">
         <v>369</v>
       </c>
-      <c r="D5" t="s">
-        <v>370</v>
-      </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2723,16 +2835,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2740,16 +2852,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>133</v>
       </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,16 +2869,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
         <v>135</v>
       </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2774,16 +2886,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2791,16 +2903,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2808,16 +2920,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2825,16 +2937,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2842,16 +2954,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2859,16 +2971,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2876,16 +2988,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2893,16 +3005,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2910,16 +3022,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
         <v>151</v>
       </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2927,16 +3039,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
         <v>153</v>
       </c>
-      <c r="D19" t="s">
-        <v>154</v>
-      </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2944,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
         <v>155</v>
       </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2961,16 +3073,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
         <v>157</v>
       </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2978,13 +3090,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
         <v>280</v>
       </c>
-      <c r="D22" t="s">
-        <v>281</v>
-      </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2992,366 +3104,366 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" t="s">
         <v>274</v>
       </c>
-      <c r="D24" t="s">
-        <v>275</v>
-      </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
         <v>171</v>
       </c>
-      <c r="D27" t="s">
-        <v>172</v>
-      </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
         <v>173</v>
       </c>
-      <c r="D28" t="s">
-        <v>174</v>
-      </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
         <v>165</v>
       </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
         <v>169</v>
       </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
         <v>179</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>180</v>
       </c>
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" t="s">
         <v>182</v>
       </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
         <v>184</v>
       </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
         <v>186</v>
       </c>
-      <c r="D35" t="s">
-        <v>187</v>
-      </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
         <v>188</v>
       </c>
-      <c r="D36" t="s">
-        <v>189</v>
-      </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="D37" t="s">
-        <v>191</v>
-      </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
         <v>192</v>
       </c>
-      <c r="D38" t="s">
-        <v>193</v>
-      </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
         <v>194</v>
       </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
         <v>196</v>
       </c>
-      <c r="D40" t="s">
-        <v>197</v>
-      </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
         <v>198</v>
       </c>
-      <c r="D41" t="s">
-        <v>199</v>
-      </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
         <v>200</v>
       </c>
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
         <v>202</v>
       </c>
-      <c r="D43" t="s">
-        <v>203</v>
-      </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
         <v>204</v>
       </c>
-      <c r="D44" t="s">
-        <v>205</v>
-      </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
         <v>206</v>
       </c>
-      <c r="D45" t="s">
-        <v>207</v>
-      </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -3359,16 +3471,16 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" t="s">
         <v>214</v>
       </c>
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -3376,16 +3488,16 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="D47" t="s">
-        <v>217</v>
-      </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -3393,16 +3505,16 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
         <v>218</v>
       </c>
-      <c r="D48" t="s">
-        <v>219</v>
-      </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -3410,16 +3522,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
         <v>220</v>
       </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -3427,16 +3539,16 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" t="s">
         <v>222</v>
       </c>
-      <c r="D50" t="s">
-        <v>223</v>
-      </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -3444,16 +3556,16 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" t="s">
         <v>224</v>
       </c>
-      <c r="D51" t="s">
-        <v>225</v>
-      </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -3461,16 +3573,16 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" t="s">
         <v>226</v>
       </c>
-      <c r="D52" t="s">
-        <v>227</v>
-      </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -3478,16 +3590,16 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" t="s">
         <v>228</v>
       </c>
-      <c r="D53" t="s">
-        <v>229</v>
-      </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -3495,16 +3607,16 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" t="s">
         <v>230</v>
       </c>
-      <c r="D54" t="s">
-        <v>231</v>
-      </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -3512,16 +3624,16 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
         <v>232</v>
       </c>
-      <c r="D55" t="s">
-        <v>233</v>
-      </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -3529,16 +3641,16 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
         <v>234</v>
       </c>
-      <c r="D56" t="s">
-        <v>235</v>
-      </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:6">
@@ -3546,13 +3658,13 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s">
         <v>256</v>
       </c>
-      <c r="D57" t="s">
-        <v>257</v>
-      </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -3560,13 +3672,13 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" t="s">
         <v>258</v>
       </c>
-      <c r="D58" t="s">
-        <v>259</v>
-      </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -3574,13 +3686,13 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" t="s">
         <v>260</v>
       </c>
-      <c r="D59" t="s">
-        <v>261</v>
-      </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -3588,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -3602,13 +3714,13 @@
         <v>25</v>
       </c>
       <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" t="s">
         <v>238</v>
       </c>
-      <c r="D61" t="s">
-        <v>239</v>
-      </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -3616,13 +3728,13 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -3630,41 +3742,41 @@
         <v>25</v>
       </c>
       <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
         <v>236</v>
       </c>
-      <c r="D63" t="s">
-        <v>237</v>
-      </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
         <v>254</v>
       </c>
-      <c r="D64" t="s">
-        <v>255</v>
-      </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
         <v>245</v>
       </c>
-      <c r="D65" t="s">
-        <v>246</v>
-      </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -3672,13 +3784,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" t="s">
         <v>250</v>
       </c>
-      <c r="D66" t="s">
-        <v>251</v>
-      </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -3686,97 +3798,97 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" t="s">
         <v>252</v>
       </c>
-      <c r="D67" t="s">
-        <v>253</v>
-      </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
         <v>242</v>
       </c>
-      <c r="C68" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" t="s">
-        <v>243</v>
-      </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" t="s">
         <v>263</v>
       </c>
-      <c r="D69" t="s">
-        <v>264</v>
-      </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" t="s">
         <v>265</v>
       </c>
-      <c r="D70" t="s">
-        <v>266</v>
-      </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" t="s">
         <v>267</v>
       </c>
-      <c r="D71" t="s">
-        <v>268</v>
-      </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" t="s">
         <v>272</v>
       </c>
-      <c r="D72" t="s">
-        <v>273</v>
-      </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" t="s">
         <v>270</v>
       </c>
-      <c r="C73" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" t="s">
-        <v>271</v>
-      </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -3784,13 +3896,13 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" t="s">
         <v>282</v>
       </c>
-      <c r="D74" t="s">
-        <v>283</v>
-      </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -3798,13 +3910,13 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -3812,13 +3924,13 @@
         <v>38</v>
       </c>
       <c r="C76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
         <v>286</v>
       </c>
-      <c r="D76" t="s">
-        <v>287</v>
-      </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -3826,13 +3938,13 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" t="s">
         <v>292</v>
       </c>
-      <c r="D77" t="s">
-        <v>293</v>
-      </c>
       <c r="E77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -3840,13 +3952,13 @@
         <v>28</v>
       </c>
       <c r="C78" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" t="s">
         <v>290</v>
       </c>
-      <c r="D78" t="s">
-        <v>291</v>
-      </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="2:5">
@@ -3854,13 +3966,13 @@
         <v>28</v>
       </c>
       <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
         <v>288</v>
       </c>
-      <c r="D79" t="s">
-        <v>289</v>
-      </c>
       <c r="E79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -3868,13 +3980,13 @@
         <v>29</v>
       </c>
       <c r="C80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
         <v>294</v>
       </c>
-      <c r="D80" t="s">
-        <v>295</v>
-      </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -3882,13 +3994,13 @@
         <v>29</v>
       </c>
       <c r="C81" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" t="s">
         <v>288</v>
       </c>
-      <c r="D81" t="s">
-        <v>289</v>
-      </c>
       <c r="E81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -3896,16 +4008,16 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" t="s">
         <v>296</v>
       </c>
-      <c r="D82" t="s">
-        <v>297</v>
-      </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -3913,16 +4025,16 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83" t="s">
         <v>298</v>
       </c>
-      <c r="D83" t="s">
-        <v>299</v>
-      </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="2:6">
@@ -3930,16 +4042,16 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
         <v>300</v>
       </c>
-      <c r="D84" t="s">
-        <v>301</v>
-      </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3947,16 +4059,16 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
         <v>302</v>
       </c>
-      <c r="D85" t="s">
-        <v>303</v>
-      </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3964,16 +4076,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" t="s">
         <v>304</v>
       </c>
-      <c r="D86" t="s">
-        <v>305</v>
-      </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3981,16 +4093,16 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" t="s">
         <v>306</v>
       </c>
-      <c r="D87" t="s">
-        <v>307</v>
-      </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -3998,16 +4110,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" t="s">
         <v>308</v>
       </c>
-      <c r="D88" t="s">
-        <v>309</v>
-      </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="2:6">
@@ -4015,16 +4127,16 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
         <v>310</v>
       </c>
-      <c r="D89" t="s">
-        <v>311</v>
-      </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="2:6">
@@ -4032,16 +4144,16 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" t="s">
         <v>312</v>
       </c>
-      <c r="D90" t="s">
-        <v>313</v>
-      </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:6">
@@ -4049,16 +4161,16 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" t="s">
         <v>314</v>
       </c>
-      <c r="D91" t="s">
-        <v>315</v>
-      </c>
       <c r="E91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="2:6">
@@ -4066,16 +4178,16 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
         <v>316</v>
       </c>
-      <c r="D92" t="s">
-        <v>317</v>
-      </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="2:6">
@@ -4083,16 +4195,16 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" t="s">
         <v>318</v>
       </c>
-      <c r="D93" t="s">
-        <v>319</v>
-      </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="2:6">
@@ -4100,16 +4212,16 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
+        <v>319</v>
+      </c>
+      <c r="D94" t="s">
         <v>320</v>
       </c>
-      <c r="D94" t="s">
-        <v>321</v>
-      </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="2:6">
@@ -4117,16 +4229,16 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" t="s">
         <v>322</v>
       </c>
-      <c r="D95" t="s">
-        <v>323</v>
-      </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="2:6">
@@ -4134,16 +4246,16 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" t="s">
         <v>324</v>
       </c>
-      <c r="D96" t="s">
-        <v>325</v>
-      </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -4151,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" t="s">
         <v>326</v>
       </c>
-      <c r="D97" t="s">
-        <v>327</v>
-      </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -4168,16 +4280,16 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" t="s">
         <v>328</v>
       </c>
-      <c r="D98" t="s">
-        <v>329</v>
-      </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -4185,16 +4297,16 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" t="s">
         <v>330</v>
       </c>
-      <c r="D99" t="s">
-        <v>331</v>
-      </c>
       <c r="E99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -4202,16 +4314,16 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" t="s">
         <v>332</v>
       </c>
-      <c r="D100" t="s">
-        <v>333</v>
-      </c>
       <c r="E100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -4219,16 +4331,16 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" t="s">
         <v>343</v>
       </c>
-      <c r="D101" t="s">
-        <v>344</v>
-      </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -4236,16 +4348,16 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" t="s">
         <v>345</v>
       </c>
-      <c r="D102" t="s">
-        <v>346</v>
-      </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -4253,16 +4365,16 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" t="s">
         <v>347</v>
       </c>
-      <c r="D103" t="s">
-        <v>348</v>
-      </c>
       <c r="E103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -4270,16 +4382,16 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" t="s">
         <v>349</v>
       </c>
-      <c r="D104" t="s">
-        <v>350</v>
-      </c>
       <c r="E104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -4287,16 +4399,16 @@
         <v>9</v>
       </c>
       <c r="C105" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" t="s">
         <v>351</v>
       </c>
-      <c r="D105" t="s">
-        <v>352</v>
-      </c>
       <c r="E105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -4304,16 +4416,16 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
+        <v>352</v>
+      </c>
+      <c r="D106" t="s">
         <v>353</v>
       </c>
-      <c r="D106" t="s">
-        <v>354</v>
-      </c>
       <c r="E106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -4321,16 +4433,16 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
+        <v>354</v>
+      </c>
+      <c r="D107" t="s">
         <v>355</v>
       </c>
-      <c r="D107" t="s">
-        <v>356</v>
-      </c>
       <c r="E107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="2:6">
@@ -4338,16 +4450,16 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
+        <v>356</v>
+      </c>
+      <c r="D108" t="s">
         <v>357</v>
       </c>
-      <c r="D108" t="s">
-        <v>358</v>
-      </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="2:6">
@@ -4355,27 +4467,27 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" t="s">
         <v>359</v>
       </c>
-      <c r="D109" t="s">
-        <v>360</v>
-      </c>
       <c r="E109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="E110" t="s">
         <v>175</v>
@@ -4386,13 +4498,13 @@
         <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="2:6">
@@ -4400,241 +4512,458 @@
         <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
       <c r="B113" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C113" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" t="s">
+        <v>339</v>
+      </c>
+      <c r="E113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" t="s">
         <v>341</v>
       </c>
-      <c r="D113" t="s">
-        <v>342</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>289</v>
+      </c>
+      <c r="D116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" t="s">
+        <v>274</v>
+      </c>
+      <c r="E118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" t="s">
+        <v>360</v>
+      </c>
+      <c r="D119" t="s">
+        <v>361</v>
+      </c>
+      <c r="E119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" t="s">
+        <v>363</v>
+      </c>
+      <c r="E120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" t="s">
+        <v>365</v>
+      </c>
+      <c r="E121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" t="s">
+        <v>390</v>
+      </c>
+      <c r="E123" t="s">
+        <v>177</v>
+      </c>
+      <c r="F123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C124" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" t="s">
+        <v>177</v>
+      </c>
+      <c r="F124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C125" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" t="s">
+        <v>394</v>
+      </c>
+      <c r="E125" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C126" t="s">
+        <v>395</v>
+      </c>
+      <c r="D126" t="s">
+        <v>396</v>
+      </c>
+      <c r="E126" t="s">
+        <v>174</v>
+      </c>
+      <c r="F126" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" t="s">
+        <v>397</v>
+      </c>
+      <c r="D127" t="s">
+        <v>398</v>
+      </c>
+      <c r="E127" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" t="s">
+        <v>399</v>
+      </c>
+      <c r="D128" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128" t="s">
+        <v>174</v>
+      </c>
+      <c r="F128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" t="s">
+        <v>401</v>
+      </c>
+      <c r="D129" t="s">
+        <v>402</v>
+      </c>
+      <c r="E129" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="B114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s">
-        <v>269</v>
-      </c>
-      <c r="D114" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="B115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" t="s">
-        <v>290</v>
-      </c>
-      <c r="D115" t="s">
-        <v>291</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F129" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C130" t="s">
+        <v>403</v>
+      </c>
+      <c r="D130" t="s">
+        <v>404</v>
+      </c>
+      <c r="E130" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="B116" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C116" t="s">
-        <v>335</v>
-      </c>
-      <c r="D116" t="s">
-        <v>336</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" t="s">
+        <v>370</v>
+      </c>
+      <c r="D131" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" t="s">
+        <v>372</v>
+      </c>
+      <c r="D132" t="s">
+        <v>373</v>
+      </c>
+      <c r="E132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C133" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" t="s">
+        <v>385</v>
+      </c>
+      <c r="E133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" t="s">
+        <v>407</v>
+      </c>
+      <c r="C134" t="s">
+        <v>408</v>
+      </c>
+      <c r="D134" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" t="s">
+        <v>380</v>
+      </c>
+      <c r="D135" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="B117" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" t="s">
-        <v>274</v>
-      </c>
-      <c r="D117" t="s">
-        <v>275</v>
-      </c>
-      <c r="E117" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>2</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C118" t="s">
-        <v>361</v>
-      </c>
-      <c r="D118" t="s">
-        <v>362</v>
-      </c>
-      <c r="E118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" t="s">
-        <v>363</v>
-      </c>
-      <c r="D119" t="s">
-        <v>364</v>
-      </c>
-      <c r="E119" t="s">
+    <row r="136" spans="2:6">
+      <c r="B136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D136" t="s">
+        <v>376</v>
+      </c>
+      <c r="E136" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="B120" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" t="s">
-        <v>365</v>
-      </c>
-      <c r="D120" t="s">
-        <v>366</v>
-      </c>
-      <c r="E120" t="s">
+    <row r="137" spans="2:6">
+      <c r="B137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137" t="s">
+        <v>378</v>
+      </c>
+      <c r="E137" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="B121" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" t="s">
-        <v>367</v>
-      </c>
-      <c r="D121" t="s">
-        <v>368</v>
-      </c>
-      <c r="E121" t="s">
+    <row r="138" spans="2:6">
+      <c r="B138" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C142" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" t="s">
+        <v>405</v>
+      </c>
+      <c r="E142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C143" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" t="s">
+        <v>417</v>
+      </c>
+      <c r="D144" t="s">
+        <v>418</v>
+      </c>
+      <c r="E144" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="B122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" t="s">
-        <v>371</v>
-      </c>
-      <c r="D122" t="s">
-        <v>372</v>
-      </c>
-      <c r="E122" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="B123" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" t="s">
-        <v>373</v>
-      </c>
-      <c r="D123" t="s">
-        <v>374</v>
-      </c>
-      <c r="E123" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="B124" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C124" t="s">
-        <v>381</v>
-      </c>
-      <c r="D124" t="s">
-        <v>376</v>
-      </c>
-      <c r="E124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="B125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C125" t="s">
-        <v>378</v>
-      </c>
-      <c r="D125" t="s">
-        <v>377</v>
-      </c>
-      <c r="E125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="B126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C126" t="s">
-        <v>380</v>
-      </c>
-      <c r="D126" t="s">
-        <v>379</v>
-      </c>
-      <c r="E126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="B127" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="B128" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:F130"/>
-  <conditionalFormatting sqref="D79:D1048576 D1:D77 E22">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  <autoFilter ref="B1:F134"/>
+  <conditionalFormatting sqref="E22 D1:D77 D79:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D60" r:id="rId1"/>
@@ -4642,4 +4971,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>